--- a/00. Misc/04. মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ/মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ.xlsx
+++ b/00. Misc/04. মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ/মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">মোংলা বন্দর কর্তৃপক্ষ </t>
   </si>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">বিষয়ঃ </t>
   </si>
   <si>
-    <t xml:space="preserve">২০০৯-১০ অর্থ বছর হতে ২০২৩-২৪ অর্থ বছর পর্যন্ত আমদানিকৃত গাড়ি খাতে বন্দরের রাজস্ব আয়ের হিসাব বিবরণ। </t>
-  </si>
-  <si>
     <t xml:space="preserve">অর্থ বছর </t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>২০২৩-২৪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">জুলাই-২৪ </t>
+  </si>
+  <si>
+    <t>আগস্ট-২৪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">২০০৯-১০ অর্থ বছর হতে ২০২৪-২৫ অর্থ বছর পর্যন্ত আমদানিকৃত গাড়ি খাতে বন্দরের রাজস্ব আয়ের হিসাব বিবরণ। </t>
   </si>
 </sst>
 </file>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -653,7 +659,7 @@
     </row>
     <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -665,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -680,24 +686,24 @@
     </row>
     <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -706,7 +712,7 @@
         <v>255</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -714,7 +720,7 @@
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -729,7 +735,7 @@
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6">
         <v>25</v>
@@ -744,7 +750,7 @@
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6">
         <v>19</v>
@@ -759,7 +765,7 @@
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>12</v>
@@ -774,7 +780,7 @@
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6">
         <v>17</v>
@@ -789,7 +795,7 @@
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6">
         <v>36</v>
@@ -804,7 +810,7 @@
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>55</v>
@@ -819,7 +825,7 @@
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>63</v>
@@ -834,7 +840,7 @@
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>50</v>
@@ -851,7 +857,7 @@
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6">
         <v>37</v>
@@ -868,7 +874,7 @@
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6">
         <v>30</v>
@@ -885,7 +891,7 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
         <v>34</v>
@@ -902,7 +908,7 @@
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>34</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>26</v>
@@ -936,7 +942,7 @@
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6">
         <v>23</v>
@@ -952,42 +958,74 @@
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1349</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1003</v>
+      </c>
+      <c r="E22" s="7">
+        <v>8403635</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1579</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1168</v>
+      </c>
+      <c r="E23" s="7">
+        <v>13375537.5</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <f>SUM(B6:B23)</f>
-        <v>472</v>
-      </c>
-      <c r="C24" s="6">
-        <f>SUM(C6:C23)</f>
-        <v>185748</v>
-      </c>
-      <c r="D24" s="6">
-        <f>SUM(D15:D23)</f>
-        <v>184668</v>
-      </c>
-      <c r="E24" s="7">
-        <f>SUM(E6:E23)</f>
-        <v>2246539588.0500002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <f>SUM(B6:B25)</f>
+        <v>476</v>
+      </c>
+      <c r="C26" s="6">
+        <f>SUM(C6:C25)</f>
+        <v>188676</v>
+      </c>
+      <c r="D26" s="6">
+        <f>SUM(D15:D25)</f>
+        <v>186839</v>
+      </c>
+      <c r="E26" s="7">
+        <f>SUM(E6:E25)</f>
+        <v>2268318760.5500002</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -1161,6 +1199,8 @@
     <row r="197" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="198" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="199" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="200" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="201" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>

--- a/00. Misc/04. মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ/মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ.xlsx
+++ b/00. Misc/04. মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ/মোংলা বন্দরে আমদানিকৃত গাড়ির রাজস্ব আয়ের বিবরণ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">মোংলা বন্দর কর্তৃপক্ষ </t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">২০০৯-১০ অর্থ বছর হতে ২০২৪-২৫ অর্থ বছর পর্যন্ত আমদানিকৃত গাড়ি খাতে বন্দরের রাজস্ব আয়ের হিসাব বিবরণ। </t>
+  </si>
+  <si>
+    <t>সেপ্টেম্বর-২৪</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -992,45 +995,85 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1078</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1640</v>
+      </c>
+      <c r="E24" s="7">
+        <v>15111368</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6">
-        <f>SUM(B6:B25)</f>
-        <v>476</v>
-      </c>
-      <c r="C26" s="6">
-        <f>SUM(C6:C25)</f>
-        <v>188676</v>
-      </c>
-      <c r="D26" s="6">
-        <f>SUM(D15:D25)</f>
-        <v>186839</v>
-      </c>
-      <c r="E26" s="7">
-        <f>SUM(E6:E25)</f>
-        <v>2268318760.5500002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+      <c r="B31" s="6">
+        <f>SUM(B6:B30)</f>
+        <v>478</v>
+      </c>
+      <c r="C31" s="6">
+        <f>SUM(C6:C30)</f>
+        <v>189754</v>
+      </c>
+      <c r="D31" s="6">
+        <f>SUM(D15:D30)</f>
+        <v>188479</v>
+      </c>
+      <c r="E31" s="7">
+        <f>SUM(E6:E30)</f>
+        <v>2283430128.5500002</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="33" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="34" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1244,11 @@
     <row r="199" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="200" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
     <row r="201" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="202" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="203" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="204" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="205" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="206" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
